--- a/Program/Other/LP005_底稿_協辦考核核算_第四季特別版.xlsx
+++ b/Program/Other/LP005_底稿_協辦考核核算_第四季特別版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43350EEA-F6BC-48E9-B69F-B5718260D23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DEB05A-A75D-499D-9770-1EA05CE5C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月件數" sheetId="70" r:id="rId1"/>
@@ -715,7 +715,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,31 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAEAEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,38 +765,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -832,28 +781,55 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,59 +841,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1711,50 +1657,50 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="18.6640625" style="11"/>
+    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1770,142 +1716,142 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="8.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="8.109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9" style="28"/>
+    <col min="5" max="5" width="8.36328125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" style="30" customWidth="1"/>
+    <col min="11" max="13" width="8.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.08984375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10" style="28" customWidth="1"/>
+    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
+    <col min="18" max="18" width="7.90625" style="28" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:17" ht="18.5">
+      <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="30" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="20" t="s">
+    <row r="3" spans="1:17" s="29" customFormat="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22"/>
       <c r="H4" s="21"/>
@@ -1917,170 +1863,187 @@
       <c r="N4" s="23"/>
       <c r="O4" s="22"/>
       <c r="P4" s="24"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="34" t="s">
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="23">
         <f t="shared" ref="F5:K5" si="0">SUM(F4:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <f t="shared" ref="L5:M5" si="1">SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <f>F5+H5+J5+L5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="22">
         <f>G5+I5+K5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="34" t="s">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37">
+      <c r="G6" s="15"/>
+      <c r="H6" s="26">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36">
+      <c r="I6" s="26"/>
+      <c r="J6" s="15">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="42" t="s">
+      <c r="O6" s="15"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="33">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
         <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
         <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15">
         <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
         <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="42" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="35" t="e">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="e">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="e">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35" t="e">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35" t="e">
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="J8:K8"/>
@@ -2097,24 +2060,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -2151,142 +2096,142 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="8.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="8.109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9" style="28"/>
+    <col min="5" max="5" width="8.36328125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" style="30" customWidth="1"/>
+    <col min="11" max="13" width="8.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.08984375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10" style="28" customWidth="1"/>
+    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
+    <col min="18" max="18" width="7.90625" style="28" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:17" ht="18.5">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="30" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="20" t="s">
+    <row r="3" spans="1:17" s="29" customFormat="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22"/>
       <c r="H4" s="21"/>
@@ -2298,170 +2243,187 @@
       <c r="N4" s="23"/>
       <c r="O4" s="22"/>
       <c r="P4" s="24"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="34" t="s">
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="23">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <f>F5+H5+J5+L5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="22">
         <f>G5+I5+K5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="34" t="s">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37">
+      <c r="G6" s="15"/>
+      <c r="H6" s="26">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36">
+      <c r="I6" s="26"/>
+      <c r="J6" s="15">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="42" t="s">
+      <c r="O6" s="15"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="33">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
         <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
         <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15">
         <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
         <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="42" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="35" t="e">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="e">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="e">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35" t="e">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35" t="e">
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -2478,11 +2440,352 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B404D-2551-48A5-95C3-F293796C9D12}">
+  <sheetPr codeName="Sheet8">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9" style="28"/>
+    <col min="5" max="5" width="8.36328125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" style="30" customWidth="1"/>
+    <col min="11" max="13" width="8.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.08984375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10" style="28" customWidth="1"/>
+    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
+    <col min="18" max="18" width="7.90625" style="28" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.5">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="29" customFormat="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="23">
+        <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="23">
+        <f>F5+H5+J5+L5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
+        <f>G5+I5+K5+M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="26">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="15">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15">
+        <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
+        <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
+        <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15">
+        <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
+        <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="27" t="e">
+        <f>F7/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="e">
+        <f>H7/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="e">
+        <f>J7/J6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="e">
+        <f>L7/L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="e">
+        <f>N7/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2496,353 +2799,11 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B404D-2551-48A5-95C3-F293796C9D12}">
-  <sheetPr codeName="Sheet8">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="8.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="8.109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="18">
-      <c r="A1" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="25">
-        <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="25">
-        <f>F5+H5+J5+L5</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="26">
-        <f>G5+I5+K5+M5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="33">
-        <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33">
-        <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33">
-        <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33">
-        <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33">
-        <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="35" t="e">
-        <f>F7/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="e">
-        <f>H7/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="e">
-        <f>J7/J6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35" t="e">
-        <f>L7/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35" t="e">
-        <f>N7/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -2859,11 +2820,352 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA84D84-784A-4975-B6C9-64841D457C59}">
+  <sheetPr codeName="Sheet9">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9" style="28"/>
+    <col min="5" max="5" width="8.36328125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" style="30" customWidth="1"/>
+    <col min="11" max="13" width="8.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.08984375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10" style="28" customWidth="1"/>
+    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
+    <col min="18" max="18" width="7.90625" style="28" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.5">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="29" customFormat="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="23">
+        <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="23">
+        <f>F5+H5+J5+L5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
+        <f>G5+I5+K5+M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="26">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="15">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15">
+        <f>SUBTOTAL(3,$C4:$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15">
+        <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
+        <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
+        <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15">
+        <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
+        <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="27" t="e">
+        <f>F7/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="e">
+        <f>H7/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="e">
+        <f>J7/J6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="e">
+        <f>L7/L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="e">
+        <f>N7/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2877,353 +3179,11 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA84D84-784A-4975-B6C9-64841D457C59}">
-  <sheetPr codeName="Sheet9">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="8.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="8.109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="18">
-      <c r="A1" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="25">
-        <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="25">
-        <f>F5+H5+J5+L5</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="26">
-        <f>G5+I5+K5+M5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36">
-        <f>SUBTOTAL(3,$C4:$C4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="33">
-        <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33">
-        <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33">
-        <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33">
-        <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33">
-        <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="35" t="e">
-        <f>F7/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="e">
-        <f>H7/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="e">
-        <f>J7/J6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35" t="e">
-        <f>L7/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35" t="e">
-        <f>N7/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -3240,24 +3200,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -3296,87 +3238,87 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="18" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9" style="12"/>
-    <col min="11" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="8.36328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="12.90625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3466,46 +3408,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="18.6640625" style="11"/>
+    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3525,46 +3467,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="18.6640625" style="11"/>
+    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3583,46 +3525,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="18.6640625" style="11"/>
+    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3642,46 +3584,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="18.6640625" style="11"/>
+    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3700,46 +3642,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="18.6640625" style="11"/>
+    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3758,46 +3700,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="18.6640625" style="11"/>
+    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3816,46 +3758,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="18.6640625" style="11"/>
+    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3877,83 +3819,83 @@
       <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="18" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9" style="12"/>
-    <col min="11" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="8.36328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="12.90625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Program/Other/LP005_底稿_協辦考核核算_第四季特別版.xlsx
+++ b/Program/Other/LP005_底稿_協辦考核核算_第四季特別版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DEB05A-A75D-499D-9770-1EA05CE5C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AEE233-5860-4189-8FC8-63903FF4C724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月件數" sheetId="70" r:id="rId1"/>
@@ -796,74 +796,74 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1657,22 +1657,20 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.6328125" style="2"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1719,283 +1717,283 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9" style="28"/>
-    <col min="5" max="5" width="8.36328125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" style="30" customWidth="1"/>
-    <col min="10" max="10" width="6.6328125" style="30" customWidth="1"/>
-    <col min="11" max="13" width="8.08984375" style="30" customWidth="1"/>
-    <col min="14" max="14" width="7.08984375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="30" customWidth="1"/>
-    <col min="16" max="16" width="10" style="28" customWidth="1"/>
-    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
-    <col min="18" max="18" width="7.90625" style="28" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="8.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="20" customWidth="1"/>
+    <col min="11" max="13" width="8.109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10" style="18" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="18">
+      <c r="A1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="29" customFormat="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18" t="s">
+    <row r="3" spans="1:17" s="19" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="20"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="16">
         <f t="shared" ref="F5:K5" si="0">SUM(F4:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="16">
         <f t="shared" ref="L5:M5" si="1">SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="16">
         <f>F5+H5+J5+L5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="15">
         <f>G5+I5+K5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="25"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="26">
+      <c r="G6" s="25"/>
+      <c r="H6" s="28">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="15">
+      <c r="I6" s="28"/>
+      <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
         <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25">
         <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25">
         <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
         <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
@@ -2021,29 +2019,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="27"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="J8:K8"/>
@@ -2060,6 +2040,24 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -2099,283 +2097,283 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9" style="28"/>
-    <col min="5" max="5" width="8.36328125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" style="30" customWidth="1"/>
-    <col min="10" max="10" width="6.6328125" style="30" customWidth="1"/>
-    <col min="11" max="13" width="8.08984375" style="30" customWidth="1"/>
-    <col min="14" max="14" width="7.08984375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="30" customWidth="1"/>
-    <col min="16" max="16" width="10" style="28" customWidth="1"/>
-    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
-    <col min="18" max="18" width="7.90625" style="28" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="8.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="20" customWidth="1"/>
+    <col min="11" max="13" width="8.109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10" style="18" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="18">
+      <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="29" customFormat="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18" t="s">
+    <row r="3" spans="1:17" s="19" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="20"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="16">
         <f>F5+H5+J5+L5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="15">
         <f>G5+I5+K5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="25"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="26">
+      <c r="G6" s="25"/>
+      <c r="H6" s="28">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="15">
+      <c r="I6" s="28"/>
+      <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
         <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25">
         <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25">
         <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
         <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
@@ -2401,29 +2399,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="27"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -2440,6 +2420,24 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -2479,283 +2477,283 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9" style="28"/>
-    <col min="5" max="5" width="8.36328125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" style="30" customWidth="1"/>
-    <col min="10" max="10" width="6.6328125" style="30" customWidth="1"/>
-    <col min="11" max="13" width="8.08984375" style="30" customWidth="1"/>
-    <col min="14" max="14" width="7.08984375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="30" customWidth="1"/>
-    <col min="16" max="16" width="10" style="28" customWidth="1"/>
-    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
-    <col min="18" max="18" width="7.90625" style="28" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="8.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="20" customWidth="1"/>
+    <col min="11" max="13" width="8.109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10" style="18" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="18">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="29" customFormat="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18" t="s">
+    <row r="3" spans="1:17" s="19" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="20"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="16">
         <f>F5+H5+J5+L5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="15">
         <f>G5+I5+K5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="25"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="26">
+      <c r="G6" s="25"/>
+      <c r="H6" s="28">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="15">
+      <c r="I6" s="28"/>
+      <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
         <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25">
         <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25">
         <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
         <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
@@ -2781,29 +2779,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="27"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -2820,6 +2800,24 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -2859,283 +2857,283 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9" style="28"/>
-    <col min="5" max="5" width="8.36328125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" style="30" customWidth="1"/>
-    <col min="10" max="10" width="6.6328125" style="30" customWidth="1"/>
-    <col min="11" max="13" width="8.08984375" style="30" customWidth="1"/>
-    <col min="14" max="14" width="7.08984375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="30" customWidth="1"/>
-    <col min="16" max="16" width="10" style="28" customWidth="1"/>
-    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
-    <col min="18" max="18" width="7.90625" style="28" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="8.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="20" customWidth="1"/>
+    <col min="11" max="13" width="8.109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10" style="18" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="18">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="29" customFormat="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18" t="s">
+    <row r="3" spans="1:17" s="19" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="20"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="16">
         <f>F5+H5+J5+L5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="15">
         <f>G5+I5+K5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="25"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="26">
+      <c r="G6" s="25"/>
+      <c r="H6" s="28">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="15">
+      <c r="I6" s="28"/>
+      <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
         <f>COUNTIF(H4:H4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25">
         <f>COUNTIF(J4:J4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25">
         <f>COUNTIF(L4:L4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
         <f>COUNTIF(N4:N4,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
@@ -3161,29 +3159,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="27"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -3200,6 +3180,24 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -3242,32 +3240,32 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="12.90625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="12.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3404,22 +3402,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A349141-C118-4C81-B2E4-91AE0CBD0875}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.6328125" style="2"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3463,22 +3459,20 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.6328125" style="2"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3521,22 +3515,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE82D848-7884-4883-94AC-534F0CE12FFD}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.6328125" style="2"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3580,22 +3572,20 @@
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.6328125" style="2"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3638,22 +3628,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7F3E68-A850-4CFF-8F48-1DC0241A0752}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.6328125" style="2"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3696,22 +3684,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795A202-AEF1-4069-BF22-B5A5CE673DF0}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.6328125" style="2"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3754,22 +3740,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696916B0-869F-4146-B523-0920AA0E27C6}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.6328125" style="2"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3816,35 +3800,35 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="12.90625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="12.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="A2" s="5" t="s">

--- a/Program/Other/LP005_底稿_協辦考核核算_第四季特別版.xlsx
+++ b/Program/Other/LP005_底稿_協辦考核核算_第四季特別版.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\SKL\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AEE233-5860-4189-8FC8-63903FF4C724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1月件數" sheetId="70" r:id="rId1"/>
@@ -147,12 +146,12 @@
     <definedName name="金額9月數字" localSheetId="13">#REF!</definedName>
     <definedName name="金額9月數字">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -601,11 +600,15 @@
     <t>計件代碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -838,26 +841,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,12 +862,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_9804" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="千分位 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_9804" xfId="2"/>
+    <cellStyle name="千分位 2" xfId="3"/>
   </cellStyles>
   <dxfs count="60">
     <dxf>
@@ -1653,11 +1656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0869A94A-3298-4599-A82F-79706276E934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="16.2"/>
   <cols>
@@ -1710,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1742,55 +1745,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="32" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="32" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
@@ -1798,19 +1801,19 @@
         <v>13</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
@@ -1841,8 +1844,8 @@
       <c r="O3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="12"/>
@@ -1864,13 +1867,13 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:K5" si="0">SUM(F4:F4)</f>
         <v>0</v>
@@ -1915,23 +1918,23 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="28">
+      <c r="H6" s="31">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
@@ -1951,13 +1954,13 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
@@ -1987,43 +1990,61 @@
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="27" t="e">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="e">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="e">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27" t="e">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27" t="e">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="27"/>
+      <c r="O8" s="26"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="J8:K8"/>
@@ -2040,24 +2061,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -2090,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7C8C0C-9802-4F23-8AB8-CE879F636DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2122,55 +2125,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="32" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="32" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
@@ -2178,19 +2181,19 @@
         <v>4</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2221,8 +2224,8 @@
       <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="12"/>
@@ -2244,13 +2247,13 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
@@ -2295,23 +2298,23 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="28">
+      <c r="H6" s="31">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
@@ -2331,13 +2334,13 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
@@ -2367,43 +2370,61 @@
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="27" t="e">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="e">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="e">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27" t="e">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27" t="e">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="27"/>
+      <c r="O8" s="26"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -2420,24 +2441,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -2470,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B404D-2551-48A5-95C3-F293796C9D12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2502,55 +2505,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="32" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="32" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
@@ -2558,19 +2561,19 @@
         <v>4</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2601,8 +2604,8 @@
       <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="12"/>
@@ -2624,13 +2627,13 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
@@ -2675,23 +2678,23 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="28">
+      <c r="H6" s="31">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
@@ -2711,13 +2714,13 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
@@ -2747,43 +2750,61 @@
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="27" t="e">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="e">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="e">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27" t="e">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27" t="e">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="27"/>
+      <c r="O8" s="26"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -2800,24 +2821,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -2850,7 +2853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA84D84-784A-4975-B6C9-64841D457C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2882,55 +2885,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="32" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="32" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
@@ -2938,19 +2941,19 @@
         <v>4</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2981,8 +2984,8 @@
       <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="12"/>
@@ -3004,13 +3007,13 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
@@ -3055,23 +3058,23 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="28">
+      <c r="H6" s="31">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
@@ -3091,13 +3094,13 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
@@ -3127,43 +3130,61 @@
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="27" t="e">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="e">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="e">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27" t="e">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27" t="e">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="27"/>
+      <c r="O8" s="26"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -3180,24 +3201,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4">
@@ -3230,7 +3233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3399,7 +3402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A349141-C118-4C81-B2E4-91AE0CBD0875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3455,7 +3458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F766160-E095-4118-B54A-2F77E016B710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3512,7 +3515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE82D848-7884-4883-94AC-534F0CE12FFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3568,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5C2AE-C013-44A5-A6CC-1F4406CBE6E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3625,7 +3628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7F3E68-A850-4CFF-8F48-1DC0241A0752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3681,7 +3684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795A202-AEF1-4069-BF22-B5A5CE673DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3737,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696916B0-869F-4146-B523-0920AA0E27C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3793,14 +3796,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54875884-19B4-4CF5-B76F-57B5FDB4F146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -3856,7 +3859,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.899999999999999" customHeight="1">

--- a/Program/Other/LP005_底稿_協辦考核核算_第四季特別版.xlsx
+++ b/Program/Other/LP005_底稿_協辦考核核算_第四季特別版.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\SKL\iTX\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKL_SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D888D-D881-4A6E-BECC-44FA1B1D169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月件數" sheetId="70" r:id="rId1"/>
@@ -146,7 +147,7 @@
     <definedName name="金額9月數字" localSheetId="13">#REF!</definedName>
     <definedName name="金額9月數字">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -608,7 +609,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -768,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,20 +842,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -862,20 +869,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_9804" xfId="2"/>
-    <cellStyle name="千分位 2" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_9804" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="千分位 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="42">
     <dxf>
       <font>
         <condense val="0"/>
@@ -899,21 +906,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -935,6 +927,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -956,21 +963,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -987,7 +979,7 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
+        <color indexed="8"/>
       </font>
     </dxf>
     <dxf>
@@ -1008,7 +1000,7 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="8"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1029,7 +1021,7 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
+        <color indexed="8"/>
       </font>
     </dxf>
     <dxf>
@@ -1050,7 +1042,7 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="8"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1071,7 +1063,7 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
+        <color indexed="8"/>
       </font>
     </dxf>
     <dxf>
@@ -1092,7 +1084,7 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="8"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1113,7 +1105,7 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
+        <color indexed="8"/>
       </font>
     </dxf>
     <dxf>
@@ -1134,7 +1126,7 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="8"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1160,27 +1152,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF002060"/>
       </font>
     </dxf>
@@ -1192,84 +1163,6 @@
     <dxf>
       <font>
         <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
       </font>
     </dxf>
   </dxfs>
@@ -1656,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1713,7 +1606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1745,55 +1638,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="26" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
@@ -1801,19 +1694,19 @@
         <v>13</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
@@ -1844,8 +1737,8 @@
       <c r="O3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="12"/>
@@ -1867,13 +1760,13 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:K5" si="0">SUM(F4:F4)</f>
         <v>0</v>
@@ -1918,23 +1811,23 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
@@ -1954,13 +1847,13 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
@@ -1990,61 +1883,43 @@
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26" t="e">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="e">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="e">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="e">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="e">
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="26"/>
+      <c r="O8" s="27"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="J8:K8"/>
@@ -2061,27 +1936,45 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"初級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
       <formula>"中級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="38" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
       <formula>"高級"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2093,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2125,55 +2018,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="26" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
@@ -2181,19 +2074,19 @@
         <v>4</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2224,8 +2117,8 @@
       <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="12"/>
@@ -2247,13 +2140,13 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
@@ -2298,23 +2191,23 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
@@ -2334,13 +2227,13 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
@@ -2370,61 +2263,43 @@
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26" t="e">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="e">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="e">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="e">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="e">
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="26"/>
+      <c r="O8" s="27"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -2441,27 +2316,45 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>"初級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="equal">
       <formula>"中級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>"高級"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2473,7 +2366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2505,55 +2398,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="26" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
@@ -2561,19 +2454,19 @@
         <v>4</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2604,8 +2497,8 @@
       <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="12"/>
@@ -2627,13 +2520,13 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
@@ -2678,23 +2571,23 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
@@ -2714,13 +2607,13 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
@@ -2750,61 +2643,43 @@
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26" t="e">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="e">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="e">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="e">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="e">
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="26"/>
+      <c r="O8" s="27"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -2821,27 +2696,45 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>"初級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
       <formula>"中級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>"高級"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2853,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2885,55 +2778,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="26" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
@@ -2941,19 +2834,19 @@
         <v>4</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2984,8 +2877,8 @@
       <c r="O3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="12"/>
@@ -3007,13 +2900,13 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:M5" si="0">SUM(F4:F4)</f>
         <v>0</v>
@@ -3058,23 +2951,23 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="25">
         <f>SUBTOTAL(3,$C4:$C4)</f>
         <v>0</v>
@@ -3094,13 +2987,13 @@
       <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="25">
         <f>COUNTIF(F4:F4,"&lt;&gt;0")</f>
         <v>1</v>
@@ -3130,61 +3023,43 @@
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26" t="e">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27" t="e">
         <f>F7/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="e">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="e">
         <f>H7/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="e">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="e">
         <f>J7/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="e">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="e">
         <f>L7/L6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="e">
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="e">
         <f>N7/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="26"/>
+      <c r="O8" s="27"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="P8:Q8"/>
@@ -3201,27 +3076,45 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"初級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"中級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"高級"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3233,7 +3126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="工作表5">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3326,62 +3219,27 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="cellIs" dxfId="17" priority="52" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G3:H4">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"初級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"中級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
       <formula>"高級"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="cellIs" dxfId="14" priority="46" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="47" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="48" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I3:I4">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"初級"</formula>
     </cfRule>
@@ -3402,7 +3260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3458,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3515,7 +3373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3571,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3628,7 +3486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3684,7 +3542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3740,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3796,14 +3654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="工作表4">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -3815,7 +3673,7 @@
     <col min="5" max="5" width="16.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" style="4" customWidth="1"/>
     <col min="7" max="8" width="12.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="34" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
@@ -3871,7 +3729,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
@@ -3882,76 +3740,41 @@
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="cellIs" dxfId="59" priority="16" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G3:H4">
+    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"高級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"中級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="equal">
       <formula>"初級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" stopIfTrue="1" operator="equal">
       <formula>"中級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" stopIfTrue="1" operator="equal">
       <formula>"高級"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="cellIs" dxfId="56" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I3:I4">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"初級"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="equal">
       <formula>"中級"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="50" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>"高級"</formula>
     </cfRule>
   </conditionalFormatting>
